--- a/T1_3/dados eua.xlsx
+++ b/T1_3/dados eua.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,19 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\GitHub\Teste\T1_3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{59BA09EC-867C-49CB-8C5B-43D505526232}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E605CF68-3763-4B4E-93D7-5DE5CC19A1D8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="34540-0001-Data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="59">
   <si>
     <t>10DE3</t>
   </si>
@@ -195,11 +202,14 @@
   <si>
     <t>ano</t>
   </si>
+  <si>
+    <t>custodia_total</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1033,18 +1043,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D271"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E271"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A237" workbookViewId="0">
+      <selection activeCell="E272" sqref="E272"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="11" customWidth="1"/>
     <col min="4" max="4" width="10.85546875" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>57</v>
       </c>
@@ -1057,8 +1070,11 @@
       <c r="D1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1978</v>
       </c>
@@ -1071,8 +1087,12 @@
       <c r="D2">
         <v>44</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <f>C2+D2</f>
+        <v>4286</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1978</v>
       </c>
@@ -1085,8 +1105,12 @@
       <c r="D3">
         <v>63</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <f t="shared" ref="E3:E66" si="0">C3+D3</f>
+        <v>396</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1978</v>
       </c>
@@ -1099,8 +1123,12 @@
       <c r="D4">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>3212</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1978</v>
       </c>
@@ -1113,8 +1141,12 @@
       <c r="D5">
         <v>76</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>2586</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1978</v>
       </c>
@@ -1127,8 +1159,12 @@
       <c r="D6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>19550</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1978</v>
       </c>
@@ -1141,8 +1177,12 @@
       <c r="D7">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>2464</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1978</v>
       </c>
@@ -1155,8 +1195,12 @@
       <c r="D8">
         <v>409</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>2213</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1978</v>
       </c>
@@ -1169,8 +1213,12 @@
       <c r="D9">
         <v>124</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>947</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1978</v>
       </c>
@@ -1183,8 +1231,12 @@
       <c r="D10">
         <v>264</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>2794</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1978</v>
       </c>
@@ -1197,8 +1249,12 @@
       <c r="D11">
         <v>189</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>20377</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1978</v>
       </c>
@@ -1211,8 +1267,12 @@
       <c r="D12">
         <v>484</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>11317</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1978</v>
       </c>
@@ -1225,8 +1285,12 @@
       <c r="D13">
         <v>44</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>464</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1978</v>
       </c>
@@ -1239,8 +1303,12 @@
       <c r="D14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>795</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1978</v>
       </c>
@@ -1253,8 +1321,12 @@
       <c r="D15">
         <v>428</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>10587</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1978</v>
       </c>
@@ -1267,8 +1339,12 @@
       <c r="D16">
         <v>527</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>4921</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1978</v>
       </c>
@@ -1281,8 +1357,12 @@
       <c r="D17">
         <v>21</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1978</v>
       </c>
@@ -1295,8 +1375,12 @@
       <c r="D18">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>2286</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1978</v>
       </c>
@@ -1309,8 +1393,12 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>3390</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1978</v>
       </c>
@@ -1323,8 +1411,12 @@
       <c r="D20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>6101</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1978</v>
       </c>
@@ -1337,8 +1429,12 @@
       <c r="D21">
         <v>107</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>666</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1978</v>
       </c>
@@ -1351,8 +1447,12 @@
       <c r="D22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>7572</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1978</v>
       </c>
@@ -1365,8 +1465,12 @@
       <c r="D23">
         <v>14</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>2707</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1978</v>
       </c>
@@ -1379,8 +1483,12 @@
       <c r="D24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>14944</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1978</v>
       </c>
@@ -1393,8 +1501,12 @@
       <c r="D25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>1837</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1978</v>
       </c>
@@ -1407,8 +1519,12 @@
       <c r="D26">
         <v>198</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>1977</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1978</v>
       </c>
@@ -1421,8 +1537,12 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>5637</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1978</v>
       </c>
@@ -1435,8 +1555,12 @@
       <c r="D28">
         <v>2</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28">
+        <f t="shared" si="0"/>
+        <v>635</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1978</v>
       </c>
@@ -1449,8 +1573,12 @@
       <c r="D29">
         <v>86</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29">
+        <f t="shared" si="0"/>
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1978</v>
       </c>
@@ -1463,8 +1591,12 @@
       <c r="D30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30">
+        <f t="shared" si="0"/>
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1978</v>
       </c>
@@ -1477,8 +1609,12 @@
       <c r="D31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31">
+        <f t="shared" si="0"/>
+        <v>244</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1978</v>
       </c>
@@ -1491,8 +1627,12 @@
       <c r="D32">
         <v>447</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32">
+        <f t="shared" si="0"/>
+        <v>5869</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1978</v>
       </c>
@@ -1505,8 +1645,12 @@
       <c r="D33">
         <v>88</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33">
+        <f t="shared" si="0"/>
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1978</v>
       </c>
@@ -1519,8 +1663,12 @@
       <c r="D34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34">
+        <f t="shared" si="0"/>
+        <v>20190</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1978</v>
       </c>
@@ -1533,8 +1681,12 @@
       <c r="D35">
         <v>984</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E35">
+        <f t="shared" si="0"/>
+        <v>13252</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1978</v>
       </c>
@@ -1547,8 +1699,12 @@
       <c r="D36">
         <v>62</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E36">
+        <f t="shared" si="0"/>
+        <v>260</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1978</v>
       </c>
@@ -1561,8 +1717,12 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E37">
+        <f t="shared" si="0"/>
+        <v>13107</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1978</v>
       </c>
@@ -1575,8 +1735,12 @@
       <c r="D38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E38">
+        <f t="shared" si="0"/>
+        <v>4186</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1978</v>
       </c>
@@ -1589,8 +1753,12 @@
       <c r="D39">
         <v>6</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E39">
+        <f t="shared" si="0"/>
+        <v>2844</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1978</v>
       </c>
@@ -1603,8 +1771,12 @@
       <c r="D40">
         <v>69</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E40">
+        <f t="shared" si="0"/>
+        <v>7389</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1978</v>
       </c>
@@ -1617,8 +1789,12 @@
       <c r="D41">
         <v>47</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E41">
+        <f t="shared" si="0"/>
+        <v>555</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1978</v>
       </c>
@@ -1631,8 +1807,12 @@
       <c r="D42">
         <v>393</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E42">
+        <f t="shared" si="0"/>
+        <v>7315</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1978</v>
       </c>
@@ -1645,8 +1825,12 @@
       <c r="D43">
         <v>29</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E43">
+        <f t="shared" si="0"/>
+        <v>549</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1978</v>
       </c>
@@ -1659,8 +1843,12 @@
       <c r="D44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E44">
+        <f t="shared" si="0"/>
+        <v>5835</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1978</v>
       </c>
@@ -1673,8 +1861,12 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E45">
+        <f t="shared" si="0"/>
+        <v>24575</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1978</v>
       </c>
@@ -1687,8 +1879,12 @@
       <c r="D46">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E46">
+        <f t="shared" si="0"/>
+        <v>875</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>1978</v>
       </c>
@@ -1701,8 +1897,12 @@
       <c r="D47">
         <v>35</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E47">
+        <f t="shared" si="0"/>
+        <v>357</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1978</v>
       </c>
@@ -1715,8 +1915,12 @@
       <c r="D48">
         <v>462</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E48">
+        <f t="shared" si="0"/>
+        <v>8051</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1978</v>
       </c>
@@ -1729,8 +1933,12 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E49">
+        <f t="shared" si="0"/>
+        <v>4524</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1978</v>
       </c>
@@ -1743,8 +1951,12 @@
       <c r="D50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E50">
+        <f t="shared" si="0"/>
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>1978</v>
       </c>
@@ -1757,8 +1969,12 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E51">
+        <f t="shared" si="0"/>
+        <v>3432</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>1978</v>
       </c>
@@ -1771,8 +1987,12 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E52">
+        <f t="shared" si="0"/>
+        <v>432</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>1978</v>
       </c>
@@ -1785,8 +2005,12 @@
       <c r="D53">
         <v>5725</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E53">
+        <f t="shared" si="0"/>
+        <v>265901</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>1978</v>
       </c>
@@ -1799,8 +2023,12 @@
       <c r="D54">
         <v>7040</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E54">
+        <f t="shared" si="0"/>
+        <v>291189</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>1978</v>
       </c>
@@ -1813,8 +2041,12 @@
       <c r="D55">
         <v>1315</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E55">
+        <f t="shared" si="0"/>
+        <v>25288</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>1979</v>
       </c>
@@ -1827,8 +2059,12 @@
       <c r="D56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E56">
+        <f t="shared" si="0"/>
+        <v>4028</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>1979</v>
       </c>
@@ -1841,8 +2077,12 @@
       <c r="D57">
         <v>65</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E57">
+        <f t="shared" si="0"/>
+        <v>429</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>1979</v>
       </c>
@@ -1855,8 +2095,12 @@
       <c r="D58">
         <v>13</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E58">
+        <f t="shared" si="0"/>
+        <v>3328</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>1979</v>
       </c>
@@ -1869,8 +2113,12 @@
       <c r="D59">
         <v>62</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E59">
+        <f t="shared" si="0"/>
+        <v>2845</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>1979</v>
       </c>
@@ -1883,8 +2131,12 @@
       <c r="D60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E60">
+        <f t="shared" si="0"/>
+        <v>21260</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>1979</v>
       </c>
@@ -1897,8 +2149,12 @@
       <c r="D61">
         <v>10</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E61">
+        <f t="shared" si="0"/>
+        <v>2531</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>1979</v>
       </c>
@@ -1911,8 +2167,12 @@
       <c r="D62">
         <v>949</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E62">
+        <f t="shared" si="0"/>
+        <v>3011</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>1979</v>
       </c>
@@ -1925,8 +2185,12 @@
       <c r="D63">
         <v>145</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E63">
+        <f t="shared" si="0"/>
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>1979</v>
       </c>
@@ -1939,8 +2203,12 @@
       <c r="D64">
         <v>288</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E64">
+        <f t="shared" si="0"/>
+        <v>2887</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>1979</v>
       </c>
@@ -1953,8 +2221,12 @@
       <c r="D65">
         <v>325</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E65">
+        <f t="shared" si="0"/>
+        <v>19232</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>1979</v>
       </c>
@@ -1967,8 +2239,12 @@
       <c r="D66">
         <v>440</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E66">
+        <f t="shared" si="0"/>
+        <v>12106</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>1979</v>
       </c>
@@ -1981,8 +2257,12 @@
       <c r="D67">
         <v>76</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E67">
+        <f t="shared" ref="E67:E130" si="1">C67+D67</f>
+        <v>552</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>1979</v>
       </c>
@@ -1995,8 +2275,12 @@
       <c r="D68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E68">
+        <f t="shared" si="1"/>
+        <v>810</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>1979</v>
       </c>
@@ -2009,8 +2293,12 @@
       <c r="D69">
         <v>502</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E69">
+        <f t="shared" si="1"/>
+        <v>11245</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>1979</v>
       </c>
@@ -2023,8 +2311,12 @@
       <c r="D70">
         <v>397</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E70">
+        <f t="shared" si="1"/>
+        <v>5667</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>1979</v>
       </c>
@@ -2037,8 +2329,12 @@
       <c r="D71">
         <v>11</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E71">
+        <f t="shared" si="1"/>
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>1979</v>
       </c>
@@ -2051,8 +2347,12 @@
       <c r="D72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E72">
+        <f t="shared" si="1"/>
+        <v>2171</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>1979</v>
       </c>
@@ -2065,8 +2365,12 @@
       <c r="D73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E73">
+        <f t="shared" si="1"/>
+        <v>3691</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>1979</v>
       </c>
@@ -2079,8 +2383,12 @@
       <c r="D74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E74">
+        <f t="shared" si="1"/>
+        <v>6746</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>1979</v>
       </c>
@@ -2093,8 +2401,12 @@
       <c r="D75">
         <v>115</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E75">
+        <f t="shared" si="1"/>
+        <v>676</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>1979</v>
       </c>
@@ -2107,8 +2419,12 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E76">
+        <f t="shared" si="1"/>
+        <v>7468</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>1979</v>
       </c>
@@ -2121,8 +2437,12 @@
       <c r="D77">
         <v>47</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E77">
+        <f t="shared" si="1"/>
+        <v>2754</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>1979</v>
       </c>
@@ -2135,8 +2455,12 @@
       <c r="D78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E78">
+        <f t="shared" si="1"/>
+        <v>15002</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>1979</v>
       </c>
@@ -2149,8 +2473,12 @@
       <c r="D79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E79">
+        <f t="shared" si="1"/>
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>1979</v>
       </c>
@@ -2163,8 +2491,12 @@
       <c r="D80">
         <v>19</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E80">
+        <f t="shared" si="1"/>
+        <v>2096</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>1979</v>
       </c>
@@ -2177,8 +2509,12 @@
       <c r="D81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E81">
+        <f t="shared" si="1"/>
+        <v>5279</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>1979</v>
       </c>
@@ -2191,8 +2527,12 @@
       <c r="D82">
         <v>3</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E82">
+        <f t="shared" si="1"/>
+        <v>680</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>1979</v>
       </c>
@@ -2205,8 +2545,12 @@
       <c r="D83">
         <v>72</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E83">
+        <f t="shared" si="1"/>
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>1979</v>
       </c>
@@ -2219,8 +2563,12 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E84">
+        <f t="shared" si="1"/>
+        <v>1656</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>1979</v>
       </c>
@@ -2233,8 +2581,12 @@
       <c r="D85">
         <v>2</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E85">
+        <f t="shared" si="1"/>
+        <v>287</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>1979</v>
       </c>
@@ -2247,8 +2599,12 @@
       <c r="D86">
         <v>313</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E86">
+        <f t="shared" si="1"/>
+        <v>5852</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>1979</v>
       </c>
@@ -2261,8 +2617,12 @@
       <c r="D87">
         <v>90</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E87">
+        <f t="shared" si="1"/>
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>1979</v>
       </c>
@@ -2275,8 +2635,12 @@
       <c r="D88">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E88">
+        <f t="shared" si="1"/>
+        <v>20895</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>1979</v>
       </c>
@@ -2289,8 +2653,12 @@
       <c r="D89">
         <v>794</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E89">
+        <f t="shared" si="1"/>
+        <v>14255</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>1979</v>
       </c>
@@ -2303,8 +2671,12 @@
       <c r="D90">
         <v>50</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E90">
+        <f t="shared" si="1"/>
+        <v>249</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>1979</v>
       </c>
@@ -2317,8 +2689,12 @@
       <c r="D91">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E91">
+        <f t="shared" si="1"/>
+        <v>13360</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>1979</v>
       </c>
@@ -2331,8 +2707,12 @@
       <c r="D92">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E92">
+        <f t="shared" si="1"/>
+        <v>4250</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>1979</v>
       </c>
@@ -2345,8 +2725,12 @@
       <c r="D93">
         <v>11</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E93">
+        <f t="shared" si="1"/>
+        <v>3255</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>1979</v>
       </c>
@@ -2359,8 +2743,12 @@
       <c r="D94">
         <v>72</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E94">
+        <f t="shared" si="1"/>
+        <v>7397</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>1979</v>
       </c>
@@ -2373,8 +2761,12 @@
       <c r="D95">
         <v>65</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E95">
+        <f t="shared" si="1"/>
+        <v>606</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>1979</v>
       </c>
@@ -2387,8 +2779,12 @@
       <c r="D96">
         <v>506</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E96">
+        <f t="shared" si="1"/>
+        <v>7522</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>1979</v>
       </c>
@@ -2401,8 +2797,12 @@
       <c r="D97">
         <v>24</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E97">
+        <f t="shared" si="1"/>
+        <v>574</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>1979</v>
       </c>
@@ -2415,8 +2815,12 @@
       <c r="D98">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E98">
+        <f t="shared" si="1"/>
+        <v>6629</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>1979</v>
       </c>
@@ -2429,8 +2833,12 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E99">
+        <f t="shared" si="1"/>
+        <v>26522</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>1979</v>
       </c>
@@ -2443,8 +2851,12 @@
       <c r="D100">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E100">
+        <f t="shared" si="1"/>
+        <v>938</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>1979</v>
       </c>
@@ -2457,8 +2869,12 @@
       <c r="D101">
         <v>58</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E101">
+        <f t="shared" si="1"/>
+        <v>343</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>1979</v>
       </c>
@@ -2471,8 +2887,12 @@
       <c r="D102">
         <v>194</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E102">
+        <f t="shared" si="1"/>
+        <v>8114</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>1979</v>
       </c>
@@ -2485,8 +2905,12 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E103">
+        <f t="shared" si="1"/>
+        <v>4463</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>1979</v>
       </c>
@@ -2499,8 +2923,12 @@
       <c r="D104">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E104">
+        <f t="shared" si="1"/>
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>1979</v>
       </c>
@@ -2513,8 +2941,12 @@
       <c r="D105">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E105">
+        <f t="shared" si="1"/>
+        <v>3677</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>1979</v>
       </c>
@@ -2527,8 +2959,12 @@
       <c r="D106">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E106">
+        <f t="shared" si="1"/>
+        <v>477</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>1979</v>
       </c>
@@ -2541,8 +2977,12 @@
       <c r="D107">
         <v>5721</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E107">
+        <f t="shared" si="1"/>
+        <v>277016</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>1979</v>
       </c>
@@ -2555,8 +2995,12 @@
       <c r="D108">
         <v>7903</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E108">
+        <f t="shared" si="1"/>
+        <v>299513</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>1979</v>
       </c>
@@ -2569,8 +3013,12 @@
       <c r="D109">
         <v>2182</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E109">
+        <f t="shared" si="1"/>
+        <v>22497</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>1980</v>
       </c>
@@ -2583,8 +3031,12 @@
       <c r="D110">
         <v>62</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E110">
+        <f t="shared" si="1"/>
+        <v>4551</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>1980</v>
       </c>
@@ -2597,8 +3049,12 @@
       <c r="D111">
         <v>47</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E111">
+        <f t="shared" si="1"/>
+        <v>428</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>1980</v>
       </c>
@@ -2611,8 +3067,12 @@
       <c r="D112">
         <v>12</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E112">
+        <f t="shared" si="1"/>
+        <v>3609</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>1980</v>
       </c>
@@ -2625,8 +3085,12 @@
       <c r="D113">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E113">
+        <f t="shared" si="1"/>
+        <v>2805</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>1980</v>
       </c>
@@ -2639,8 +3103,12 @@
       <c r="D114">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E114">
+        <f t="shared" si="1"/>
+        <v>23264</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>1980</v>
       </c>
@@ -2653,8 +3121,12 @@
       <c r="D115">
         <v>20</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E115">
+        <f t="shared" si="1"/>
+        <v>2616</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>1980</v>
       </c>
@@ -2667,8 +3139,12 @@
       <c r="D116">
         <v>572</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E116">
+        <f t="shared" si="1"/>
+        <v>3041</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>1980</v>
       </c>
@@ -2681,8 +3157,12 @@
       <c r="D117">
         <v>162</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E117">
+        <f t="shared" si="1"/>
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>1980</v>
       </c>
@@ -2695,8 +3175,12 @@
       <c r="D118">
         <v>325</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E118">
+        <f t="shared" si="1"/>
+        <v>3044</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>1980</v>
       </c>
@@ -2709,8 +3193,12 @@
       <c r="D119">
         <v>512</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E119">
+        <f t="shared" si="1"/>
+        <v>20457</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>1980</v>
       </c>
@@ -2723,8 +3211,12 @@
       <c r="D120">
         <v>256</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E120">
+        <f t="shared" si="1"/>
+        <v>12178</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>1980</v>
       </c>
@@ -2737,8 +3229,12 @@
       <c r="D121">
         <v>88</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E121">
+        <f t="shared" si="1"/>
+        <v>632</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>1980</v>
       </c>
@@ -2751,8 +3247,12 @@
       <c r="D122">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E122">
+        <f t="shared" si="1"/>
+        <v>672</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>1980</v>
       </c>
@@ -2765,8 +3265,12 @@
       <c r="D123">
         <v>1046</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E123">
+        <f t="shared" si="1"/>
+        <v>11497</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>1980</v>
       </c>
@@ -2779,8 +3283,12 @@
       <c r="D124">
         <v>402</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E124">
+        <f t="shared" si="1"/>
+        <v>6683</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>1980</v>
       </c>
@@ -2793,8 +3301,12 @@
       <c r="D125">
         <v>2</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E125">
+        <f t="shared" si="1"/>
+        <v>2437</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>1980</v>
       </c>
@@ -2807,8 +3319,12 @@
       <c r="D126">
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E126">
+        <f t="shared" si="1"/>
+        <v>2431</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>1980</v>
       </c>
@@ -2821,8 +3337,12 @@
       <c r="D127">
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E127">
+        <f t="shared" si="1"/>
+        <v>3588</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>1980</v>
       </c>
@@ -2835,8 +3355,12 @@
       <c r="D128">
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E128">
+        <f t="shared" si="1"/>
+        <v>7622</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>1980</v>
       </c>
@@ -2849,8 +3373,12 @@
       <c r="D129">
         <v>112</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E129">
+        <f t="shared" si="1"/>
+        <v>653</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>1980</v>
       </c>
@@ -2863,8 +3391,12 @@
       <c r="D130">
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E130">
+        <f t="shared" si="1"/>
+        <v>7454</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>1980</v>
       </c>
@@ -2877,8 +3409,12 @@
       <c r="D131">
         <v>35</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E131">
+        <f t="shared" ref="E131:E194" si="2">C131+D131</f>
+        <v>3067</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>1980</v>
       </c>
@@ -2891,8 +3427,12 @@
       <c r="D132">
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E132">
+        <f t="shared" si="2"/>
+        <v>15124</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>1980</v>
       </c>
@@ -2905,8 +3445,12 @@
       <c r="D133">
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E133">
+        <f t="shared" si="2"/>
+        <v>1884</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>1980</v>
       </c>
@@ -2919,8 +3463,12 @@
       <c r="D134">
         <v>55</v>
       </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E134">
+        <f t="shared" si="2"/>
+        <v>2745</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>1980</v>
       </c>
@@ -2933,8 +3481,12 @@
       <c r="D135">
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E135">
+        <f t="shared" si="2"/>
+        <v>5726</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>1980</v>
       </c>
@@ -2947,8 +3499,12 @@
       <c r="D136">
         <v>1</v>
       </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E136">
+        <f t="shared" si="2"/>
+        <v>692</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>1980</v>
       </c>
@@ -2961,8 +3517,12 @@
       <c r="D137">
         <v>32</v>
       </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E137">
+        <f t="shared" si="2"/>
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>1980</v>
       </c>
@@ -2975,8 +3535,12 @@
       <c r="D138">
         <v>0</v>
       </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E138">
+        <f t="shared" si="2"/>
+        <v>1815</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>1980</v>
       </c>
@@ -2989,8 +3553,12 @@
       <c r="D139">
         <v>1</v>
       </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E139">
+        <f t="shared" si="2"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>1980</v>
       </c>
@@ -3003,8 +3571,12 @@
       <c r="D140">
         <v>320</v>
       </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E140">
+        <f t="shared" si="2"/>
+        <v>5881</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>1980</v>
       </c>
@@ -3017,8 +3589,12 @@
       <c r="D141">
         <v>51</v>
       </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E141">
+        <f t="shared" si="2"/>
+        <v>976</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>1980</v>
       </c>
@@ -3031,8 +3607,12 @@
       <c r="D142">
         <v>0</v>
       </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E142">
+        <f t="shared" si="2"/>
+        <v>21639</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>1980</v>
       </c>
@@ -3045,8 +3625,12 @@
       <c r="D143">
         <v>1057</v>
       </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E143">
+        <f t="shared" si="2"/>
+        <v>15513</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>1980</v>
       </c>
@@ -3059,8 +3643,12 @@
       <c r="D144">
         <v>68</v>
       </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E144">
+        <f t="shared" si="2"/>
+        <v>332</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>1980</v>
       </c>
@@ -3073,8 +3661,12 @@
       <c r="D145">
         <v>0</v>
       </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E145">
+        <f t="shared" si="2"/>
+        <v>13138</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>1980</v>
       </c>
@@ -3087,8 +3679,12 @@
       <c r="D146">
         <v>0</v>
       </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E146">
+        <f t="shared" si="2"/>
+        <v>4544</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>1980</v>
       </c>
@@ -3101,8 +3697,12 @@
       <c r="D147">
         <v>5</v>
       </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E147">
+        <f t="shared" si="2"/>
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>1980</v>
       </c>
@@ -3115,8 +3715,12 @@
       <c r="D148">
         <v>59</v>
       </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E148">
+        <f t="shared" si="2"/>
+        <v>8189</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>1980</v>
       </c>
@@ -3129,8 +3733,12 @@
       <c r="D149">
         <v>74</v>
       </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E149">
+        <f t="shared" si="2"/>
+        <v>675</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>1980</v>
       </c>
@@ -3143,8 +3751,12 @@
       <c r="D150">
         <v>362</v>
       </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E150">
+        <f t="shared" si="2"/>
+        <v>7045</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>1980</v>
       </c>
@@ -3157,8 +3769,12 @@
       <c r="D151">
         <v>26</v>
       </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E151">
+        <f t="shared" si="2"/>
+        <v>651</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>1980</v>
       </c>
@@ -3171,8 +3787,12 @@
       <c r="D152">
         <v>0</v>
       </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E152">
+        <f t="shared" si="2"/>
+        <v>6844</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>1980</v>
       </c>
@@ -3185,8 +3805,12 @@
       <c r="D153">
         <v>0</v>
       </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E153">
+        <f t="shared" si="2"/>
+        <v>29892</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>1980</v>
       </c>
@@ -3199,8 +3823,12 @@
       <c r="D154">
         <v>4</v>
       </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E154">
+        <f t="shared" si="2"/>
+        <v>920</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>1980</v>
       </c>
@@ -3213,8 +3841,12 @@
       <c r="D155">
         <v>78</v>
       </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E155">
+        <f t="shared" si="2"/>
+        <v>404</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>1980</v>
       </c>
@@ -3227,8 +3859,12 @@
       <c r="D156">
         <v>126</v>
       </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E156">
+        <f t="shared" si="2"/>
+        <v>8357</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>1980</v>
       </c>
@@ -3241,8 +3877,12 @@
       <c r="D157">
         <v>0</v>
       </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E157">
+        <f t="shared" si="2"/>
+        <v>4339</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>1980</v>
       </c>
@@ -3255,8 +3895,12 @@
       <c r="D158">
         <v>0</v>
       </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E158">
+        <f t="shared" si="2"/>
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>1980</v>
       </c>
@@ -3269,8 +3913,12 @@
       <c r="D159">
         <v>0</v>
       </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E159">
+        <f t="shared" si="2"/>
+        <v>3788</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>1980</v>
       </c>
@@ -3283,8 +3931,12 @@
       <c r="D160">
         <v>0</v>
       </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E160">
+        <f t="shared" si="2"/>
+        <v>490</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>1980</v>
       </c>
@@ -3297,8 +3949,12 @@
       <c r="D161">
         <v>5972</v>
       </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E161">
+        <f t="shared" si="2"/>
+        <v>291639</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>1980</v>
       </c>
@@ -3311,8 +3967,12 @@
       <c r="D162">
         <v>7991</v>
       </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E162">
+        <f t="shared" si="2"/>
+        <v>312683</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>1980</v>
       </c>
@@ -3325,8 +3985,12 @@
       <c r="D163">
         <v>2019</v>
       </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E163">
+        <f t="shared" si="2"/>
+        <v>21044</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>1981</v>
       </c>
@@ -3339,8 +4003,12 @@
       <c r="D164">
         <v>126</v>
       </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E164">
+        <f t="shared" si="2"/>
+        <v>5953</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>1981</v>
       </c>
@@ -3353,8 +4021,12 @@
       <c r="D165">
         <v>62</v>
       </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E165">
+        <f t="shared" si="2"/>
+        <v>572</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>1981</v>
       </c>
@@ -3367,8 +4039,12 @@
       <c r="D166">
         <v>24</v>
       </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E166">
+        <f t="shared" si="2"/>
+        <v>4804</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>1981</v>
       </c>
@@ -3381,8 +4057,12 @@
       <c r="D167">
         <v>31</v>
       </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E167">
+        <f t="shared" si="2"/>
+        <v>3245</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>1981</v>
       </c>
@@ -3395,8 +4075,12 @@
       <c r="D168">
         <v>0</v>
       </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E168">
+        <f t="shared" si="2"/>
+        <v>27913</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>1981</v>
       </c>
@@ -3409,8 +4093,12 @@
       <c r="D169">
         <v>2</v>
       </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E169">
+        <f t="shared" si="2"/>
+        <v>2745</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>1981</v>
       </c>
@@ -3423,8 +4111,12 @@
       <c r="D170">
         <v>559</v>
       </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E170">
+        <f t="shared" si="2"/>
+        <v>3329</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>1981</v>
       </c>
@@ -3437,8 +4129,12 @@
       <c r="D171">
         <v>125</v>
       </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E171">
+        <f t="shared" si="2"/>
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>1981</v>
       </c>
@@ -3451,8 +4147,12 @@
       <c r="D172">
         <v>443</v>
       </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E172">
+        <f t="shared" si="2"/>
+        <v>3375</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>1981</v>
       </c>
@@ -3465,8 +4165,12 @@
       <c r="D173">
         <v>379</v>
       </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E173">
+        <f t="shared" si="2"/>
+        <v>23277</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>1981</v>
       </c>
@@ -3479,8 +4183,12 @@
       <c r="D174">
         <v>67</v>
       </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E174">
+        <f t="shared" si="2"/>
+        <v>12444</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>1981</v>
       </c>
@@ -3493,8 +4201,12 @@
       <c r="D175">
         <v>65</v>
       </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E175">
+        <f t="shared" si="2"/>
+        <v>745</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>1981</v>
       </c>
@@ -3507,8 +4219,12 @@
       <c r="D176">
         <v>0</v>
       </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E176">
+        <f t="shared" si="2"/>
+        <v>903</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>1981</v>
       </c>
@@ -3521,8 +4237,12 @@
       <c r="D177">
         <v>325</v>
       </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E177">
+        <f t="shared" si="2"/>
+        <v>13994</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>1981</v>
       </c>
@@ -3535,8 +4255,12 @@
       <c r="D178">
         <v>463</v>
       </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E178">
+        <f t="shared" si="2"/>
+        <v>8022</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>1981</v>
       </c>
@@ -3549,8 +4273,12 @@
       <c r="D179">
         <v>-9</v>
       </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E179">
+        <f t="shared" si="2"/>
+        <v>2661</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>1981</v>
       </c>
@@ -3563,8 +4291,12 @@
       <c r="D180">
         <v>0</v>
       </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E180">
+        <f t="shared" si="2"/>
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>1981</v>
       </c>
@@ -3577,8 +4309,12 @@
       <c r="D181">
         <v>0</v>
       </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E181">
+        <f t="shared" si="2"/>
+        <v>3993</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>1981</v>
       </c>
@@ -3591,8 +4327,12 @@
       <c r="D182">
         <v>0</v>
       </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E182">
+        <f t="shared" si="2"/>
+        <v>8577</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>1981</v>
       </c>
@@ -3605,8 +4345,12 @@
       <c r="D183">
         <v>135</v>
       </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E183">
+        <f t="shared" si="2"/>
+        <v>802</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>1981</v>
       </c>
@@ -3619,8 +4363,12 @@
       <c r="D184">
         <v>423</v>
       </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E184">
+        <f t="shared" si="2"/>
+        <v>9264</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>1981</v>
       </c>
@@ -3633,8 +4381,12 @@
       <c r="D185">
         <v>98</v>
       </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E185">
+        <f t="shared" si="2"/>
+        <v>3889</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>1981</v>
       </c>
@@ -3647,8 +4399,12 @@
       <c r="D186">
         <v>0</v>
       </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E186">
+        <f t="shared" si="2"/>
+        <v>15157</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>1981</v>
       </c>
@@ -3661,8 +4417,12 @@
       <c r="D187">
         <v>0</v>
       </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E187">
+        <f t="shared" si="2"/>
+        <v>1909</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>1981</v>
       </c>
@@ -3675,8 +4435,12 @@
       <c r="D188">
         <v>65</v>
       </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E188">
+        <f t="shared" si="2"/>
+        <v>3477</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>1981</v>
       </c>
@@ -3689,8 +4453,12 @@
       <c r="D189">
         <v>0</v>
       </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E189">
+        <f t="shared" si="2"/>
+        <v>6489</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>1981</v>
       </c>
@@ -3703,8 +4471,12 @@
       <c r="D190">
         <v>3</v>
       </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E190">
+        <f t="shared" si="2"/>
+        <v>737</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>1981</v>
       </c>
@@ -3717,8 +4489,12 @@
       <c r="D191">
         <v>21</v>
       </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E191">
+        <f t="shared" si="2"/>
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>1981</v>
       </c>
@@ -3731,8 +4507,12 @@
       <c r="D192">
         <v>0</v>
       </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E192">
+        <f t="shared" si="2"/>
+        <v>2075</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>1981</v>
       </c>
@@ -3745,8 +4525,12 @@
       <c r="D193">
         <v>0</v>
       </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E193">
+        <f t="shared" si="2"/>
+        <v>351</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>1981</v>
       </c>
@@ -3759,8 +4543,12 @@
       <c r="D194">
         <v>150</v>
       </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E194">
+        <f t="shared" si="2"/>
+        <v>6996</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>1981</v>
       </c>
@@ -3773,8 +4561,12 @@
       <c r="D195">
         <v>138</v>
       </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E195">
+        <f t="shared" ref="E195:E258" si="3">C195+D195</f>
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>1981</v>
       </c>
@@ -3787,8 +4579,12 @@
       <c r="D196">
         <v>0</v>
       </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E196">
+        <f t="shared" si="3"/>
+        <v>25494</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>1981</v>
       </c>
@@ -3801,8 +4597,12 @@
       <c r="D197">
         <v>937</v>
       </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E197">
+        <f t="shared" si="3"/>
+        <v>15691</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>1981</v>
       </c>
@@ -3815,8 +4615,12 @@
       <c r="D198">
         <v>62</v>
       </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E198">
+        <f t="shared" si="3"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>1981</v>
       </c>
@@ -3829,8 +4633,12 @@
       <c r="D199">
         <v>0</v>
       </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E199">
+        <f t="shared" si="3"/>
+        <v>14796</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>1981</v>
       </c>
@@ -3843,8 +4651,12 @@
       <c r="D200">
         <v>0</v>
       </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E200">
+        <f t="shared" si="3"/>
+        <v>4950</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>1981</v>
       </c>
@@ -3857,8 +4669,12 @@
       <c r="D201">
         <v>3</v>
       </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E201">
+        <f t="shared" si="3"/>
+        <v>3287</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>1981</v>
       </c>
@@ -3871,8 +4687,12 @@
       <c r="D202">
         <v>74</v>
       </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E202">
+        <f t="shared" si="3"/>
+        <v>9366</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>1981</v>
       </c>
@@ -3885,8 +4705,12 @@
       <c r="D203">
         <v>93</v>
       </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E203">
+        <f t="shared" si="3"/>
+        <v>781</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>1981</v>
       </c>
@@ -3899,8 +4723,12 @@
       <c r="D204">
         <v>459</v>
       </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E204">
+        <f t="shared" si="3"/>
+        <v>7644</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>1981</v>
       </c>
@@ -3913,8 +4741,12 @@
       <c r="D205">
         <v>31</v>
       </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E205">
+        <f t="shared" si="3"/>
+        <v>696</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>1981</v>
       </c>
@@ -3927,8 +4759,12 @@
       <c r="D206">
         <v>0</v>
       </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E206">
+        <f t="shared" si="3"/>
+        <v>7678</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>1981</v>
       </c>
@@ -3941,8 +4777,12 @@
       <c r="D207">
         <v>0</v>
       </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E207">
+        <f t="shared" si="3"/>
+        <v>31502</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>1981</v>
       </c>
@@ -3955,8 +4795,12 @@
       <c r="D208">
         <v>14</v>
       </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E208">
+        <f t="shared" si="3"/>
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>1981</v>
       </c>
@@ -3969,8 +4813,12 @@
       <c r="D209">
         <v>52</v>
       </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E209">
+        <f t="shared" si="3"/>
+        <v>413</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>1981</v>
       </c>
@@ -3983,8 +4831,12 @@
       <c r="D210">
         <v>54</v>
       </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E210">
+        <f t="shared" si="3"/>
+        <v>8514</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>1981</v>
       </c>
@@ -3997,8 +4849,12 @@
       <c r="D211">
         <v>0</v>
       </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E211">
+        <f t="shared" si="3"/>
+        <v>5294</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>1981</v>
       </c>
@@ -4011,8 +4867,12 @@
       <c r="D212">
         <v>0</v>
       </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E212">
+        <f t="shared" si="3"/>
+        <v>1565</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>1981</v>
       </c>
@@ -4025,8 +4885,12 @@
       <c r="D213">
         <v>0</v>
       </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E213">
+        <f t="shared" si="3"/>
+        <v>4249</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>1981</v>
       </c>
@@ -4039,8 +4903,12 @@
       <c r="D214">
         <v>0</v>
       </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E214">
+        <f t="shared" si="3"/>
+        <v>610</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>1981</v>
       </c>
@@ -4053,8 +4921,12 @@
       <c r="D215">
         <v>5483</v>
       </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E215">
+        <f t="shared" si="3"/>
+        <v>328455</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>1981</v>
       </c>
@@ -4067,8 +4939,12 @@
       <c r="D216">
         <v>7741</v>
       </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E216">
+        <f t="shared" si="3"/>
+        <v>352024</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>1981</v>
       </c>
@@ -4081,8 +4957,12 @@
       <c r="D217">
         <v>2258</v>
       </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E217">
+        <f t="shared" si="3"/>
+        <v>23569</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>1982</v>
       </c>
@@ -4095,8 +4975,12 @@
       <c r="D218">
         <v>233</v>
       </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E218">
+        <f t="shared" si="3"/>
+        <v>7798</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>1982</v>
       </c>
@@ -4109,8 +4993,12 @@
       <c r="D219">
         <v>115</v>
       </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E219">
+        <f t="shared" si="3"/>
+        <v>723</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>1982</v>
       </c>
@@ -4123,8 +5011,12 @@
       <c r="D220">
         <v>21</v>
       </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E220">
+        <f t="shared" si="3"/>
+        <v>5830</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>1982</v>
       </c>
@@ -4137,8 +5029,12 @@
       <c r="D221">
         <v>27</v>
       </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E221">
+        <f t="shared" si="3"/>
+        <v>3774</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>1982</v>
       </c>
@@ -4151,8 +5047,12 @@
       <c r="D222">
         <v>0</v>
       </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E222">
+        <f t="shared" si="3"/>
+        <v>33583</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>1982</v>
       </c>
@@ -4165,8 +5065,12 @@
       <c r="D223">
         <v>0</v>
       </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E223">
+        <f t="shared" si="3"/>
+        <v>3037</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>1982</v>
       </c>
@@ -4179,8 +5083,12 @@
       <c r="D224">
         <v>727</v>
       </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E224">
+        <f t="shared" si="3"/>
+        <v>3731</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>1982</v>
       </c>
@@ -4193,8 +5101,12 @@
       <c r="D225">
         <v>184</v>
       </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E225">
+        <f t="shared" si="3"/>
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>1982</v>
       </c>
@@ -4207,8 +5119,12 @@
       <c r="D226">
         <v>615</v>
       </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E226">
+        <f t="shared" si="3"/>
+        <v>3966</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>1982</v>
       </c>
@@ -4221,8 +5137,12 @@
       <c r="D227">
         <v>673</v>
       </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E227">
+        <f t="shared" si="3"/>
+        <v>27565</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>1982</v>
       </c>
@@ -4235,8 +5155,12 @@
       <c r="D228">
         <v>367</v>
       </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E228">
+        <f t="shared" si="3"/>
+        <v>14405</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>1982</v>
       </c>
@@ -4249,8 +5173,12 @@
       <c r="D229">
         <v>151</v>
       </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E229">
+        <f t="shared" si="3"/>
+        <v>955</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>1982</v>
       </c>
@@ -4263,8 +5191,12 @@
       <c r="D230">
         <v>0</v>
       </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E230">
+        <f t="shared" si="3"/>
+        <v>990</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>1982</v>
       </c>
@@ -4277,8 +5209,12 @@
       <c r="D231">
         <v>344</v>
       </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E231">
+        <f t="shared" si="3"/>
+        <v>13895</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>1982</v>
       </c>
@@ -4291,8 +5227,12 @@
       <c r="D232">
         <v>495</v>
       </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E232">
+        <f t="shared" si="3"/>
+        <v>8790</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>1982</v>
       </c>
@@ -4305,8 +5245,12 @@
       <c r="D233">
         <v>0</v>
       </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E233">
+        <f t="shared" si="3"/>
+        <v>2829</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>1982</v>
       </c>
@@ -4319,8 +5263,12 @@
       <c r="D234">
         <v>0</v>
       </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E234">
+        <f t="shared" si="3"/>
+        <v>3015</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>1982</v>
       </c>
@@ -4333,8 +5281,12 @@
       <c r="D235">
         <v>0</v>
       </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E235">
+        <f t="shared" si="3"/>
+        <v>3915</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>1982</v>
       </c>
@@ -4347,8 +5299,12 @@
       <c r="D236">
         <v>0</v>
       </c>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E236">
+        <f t="shared" si="3"/>
+        <v>9436</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>1982</v>
       </c>
@@ -4361,8 +5317,12 @@
       <c r="D237">
         <v>156</v>
       </c>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E237">
+        <f t="shared" si="3"/>
+        <v>885</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>1982</v>
       </c>
@@ -4375,8 +5335,12 @@
       <c r="D238">
         <v>582</v>
       </c>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E238">
+        <f t="shared" si="3"/>
+        <v>11550</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>1982</v>
       </c>
@@ -4389,8 +5353,12 @@
       <c r="D239">
         <v>96</v>
       </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E239">
+        <f t="shared" si="3"/>
+        <v>4334</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>1982</v>
       </c>
@@ -4403,8 +5371,12 @@
       <c r="D240">
         <v>0</v>
       </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E240">
+        <f t="shared" si="3"/>
+        <v>14913</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>1982</v>
       </c>
@@ -4417,8 +5389,12 @@
       <c r="D241">
         <v>0</v>
       </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E241">
+        <f t="shared" si="3"/>
+        <v>2197</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>1982</v>
       </c>
@@ -4431,8 +5407,12 @@
       <c r="D242">
         <v>52</v>
       </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E242">
+        <f t="shared" si="3"/>
+        <v>4464</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>1982</v>
       </c>
@@ -4445,8 +5425,12 @@
       <c r="D243">
         <v>0</v>
       </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E243">
+        <f t="shared" si="3"/>
+        <v>7422</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>1982</v>
       </c>
@@ -4459,8 +5443,12 @@
       <c r="D244">
         <v>0</v>
       </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E244">
+        <f t="shared" si="3"/>
+        <v>810</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>1982</v>
       </c>
@@ -4473,8 +5461,12 @@
       <c r="D245">
         <v>96</v>
       </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E245">
+        <f t="shared" si="3"/>
+        <v>1656</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>1982</v>
       </c>
@@ -4487,8 +5479,12 @@
       <c r="D246">
         <v>0</v>
       </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E246">
+        <f t="shared" si="3"/>
+        <v>2546</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>1982</v>
       </c>
@@ -4501,8 +5497,12 @@
       <c r="D247">
         <v>0</v>
       </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E247">
+        <f t="shared" si="3"/>
+        <v>431</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>1982</v>
       </c>
@@ -4515,8 +5515,12 @@
       <c r="D248">
         <v>201</v>
       </c>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E248">
+        <f t="shared" si="3"/>
+        <v>8171</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>1982</v>
       </c>
@@ -4529,8 +5533,12 @@
       <c r="D249">
         <v>231</v>
       </c>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E249">
+        <f t="shared" si="3"/>
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>1982</v>
       </c>
@@ -4543,8 +5551,12 @@
       <c r="D250">
         <v>0</v>
       </c>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E250">
+        <f t="shared" si="3"/>
+        <v>28501</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>1982</v>
       </c>
@@ -4557,8 +5569,12 @@
       <c r="D251">
         <v>1220</v>
       </c>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E251">
+        <f t="shared" si="3"/>
+        <v>16569</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>1982</v>
       </c>
@@ -4571,8 +5587,12 @@
       <c r="D252">
         <v>46</v>
       </c>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E252">
+        <f t="shared" si="3"/>
+        <v>351</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>1982</v>
       </c>
@@ -4585,8 +5605,12 @@
       <c r="D253">
         <v>0</v>
       </c>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E253">
+        <f t="shared" si="3"/>
+        <v>17147</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>1982</v>
       </c>
@@ -4599,8 +5623,12 @@
       <c r="D254">
         <v>0</v>
       </c>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E254">
+        <f t="shared" si="3"/>
+        <v>6054</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>1982</v>
       </c>
@@ -4613,8 +5641,12 @@
       <c r="D255">
         <v>0</v>
       </c>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E255">
+        <f t="shared" si="3"/>
+        <v>3867</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>1982</v>
       </c>
@@ -4627,8 +5659,12 @@
       <c r="D256">
         <v>60</v>
       </c>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E256">
+        <f t="shared" si="3"/>
+        <v>10526</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>1982</v>
       </c>
@@ -4641,8 +5677,12 @@
       <c r="D257">
         <v>92</v>
       </c>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E257">
+        <f t="shared" si="3"/>
+        <v>877</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>1982</v>
       </c>
@@ -4655,8 +5695,12 @@
       <c r="D258">
         <v>485</v>
       </c>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E258">
+        <f t="shared" si="3"/>
+        <v>8533</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>1982</v>
       </c>
@@ -4669,8 +5713,12 @@
       <c r="D259">
         <v>36</v>
       </c>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E259">
+        <f t="shared" ref="E259:E271" si="4">C259+D259</f>
+        <v>794</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>1982</v>
       </c>
@@ -4683,8 +5731,12 @@
       <c r="D260">
         <v>0</v>
       </c>
-    </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E260">
+        <f t="shared" si="4"/>
+        <v>7683</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>1982</v>
       </c>
@@ -4697,8 +5749,12 @@
       <c r="D261">
         <v>0</v>
       </c>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E261">
+        <f t="shared" si="4"/>
+        <v>36149</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>1982</v>
       </c>
@@ -4711,8 +5767,12 @@
       <c r="D262">
         <v>17</v>
       </c>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E262">
+        <f t="shared" si="4"/>
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>1982</v>
       </c>
@@ -4725,8 +5785,12 @@
       <c r="D263">
         <v>86</v>
       </c>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E263">
+        <f t="shared" si="4"/>
+        <v>476</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>1982</v>
       </c>
@@ -4739,8 +5803,12 @@
       <c r="D264">
         <v>26</v>
       </c>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E264">
+        <f t="shared" si="4"/>
+        <v>9229</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>1982</v>
       </c>
@@ -4753,8 +5821,12 @@
       <c r="D265">
         <v>0</v>
       </c>
-    </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E265">
+        <f t="shared" si="4"/>
+        <v>5861</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>1982</v>
       </c>
@@ -4767,8 +5839,12 @@
       <c r="D266">
         <v>0</v>
       </c>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E266">
+        <f t="shared" si="4"/>
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>1982</v>
       </c>
@@ -4781,8 +5857,12 @@
       <c r="D267">
         <v>0</v>
       </c>
-    </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E267">
+        <f t="shared" si="4"/>
+        <v>4441</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>1982</v>
       </c>
@@ -4795,8 +5875,12 @@
       <c r="D268">
         <v>0</v>
       </c>
-    </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E268">
+        <f t="shared" si="4"/>
+        <v>684</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>1982</v>
       </c>
@@ -4809,8 +5893,12 @@
       <c r="D269">
         <v>7434</v>
       </c>
-    </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E269">
+        <f t="shared" si="4"/>
+        <v>371147</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>1982</v>
       </c>
@@ -4823,8 +5911,12 @@
       <c r="D270">
         <v>9966</v>
       </c>
-    </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E270">
+        <f t="shared" si="4"/>
+        <v>395309</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>1982</v>
       </c>
@@ -4836,6 +5928,10 @@
       </c>
       <c r="D271">
         <v>2532</v>
+      </c>
+      <c r="E271">
+        <f>C271+D271</f>
+        <v>24162</v>
       </c>
     </row>
   </sheetData>
